--- a/instance/zyjk/swagger/erp.xlsx
+++ b/instance/zyjk/swagger/erp.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -43,6 +43,13 @@
     </font>
     <font>
       <name val="微软雅黑"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <i val="1"/>
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
@@ -77,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -108,6 +115,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,42 +511,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
@@ -565,7 +581,7 @@
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0.0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
+          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": "?", "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
@@ -705,7 +721,7 @@
       <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0.0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
+          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": "?", "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
@@ -738,7 +754,7 @@
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -804,7 +820,7 @@
       <c r="F9" s="1" t="inlineStr"/>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1091,7 @@
       <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>{"beginTime": "", "currPage": 0, "customerName": "", "delegateName": "", "endTime": "", "hospitalName": "", "pageSize": 0}</t>
+          <t>{"beginTime": "", "currPage": 0, "customerName": "", "delegateName": "", "endTime": "", "hospitalName": "", "pageSize": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1404,7 @@
       <c r="F26" s="1" t="inlineStr"/>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0.0, "actualMealsCost": 0.0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1437,7 @@
       <c r="F27" s="1" t="inlineStr"/>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0.0, "actualMealsCost": 0.0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1577,7 @@
       <c r="F31" s="1" t="inlineStr"/>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0.0, "mealsCostBudget": 0.0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1610,7 @@
       <c r="F32" s="1" t="inlineStr"/>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>{"beginTime": "", "currPage": 0, "endTime": "", "pageSize": 0}</t>
+          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1675,7 @@
       <c r="F34" s="1" t="inlineStr"/>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0.0, "mealsCostBudget": 0.0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1945,7 @@
       <c r="F42" s="1" t="inlineStr"/>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>{"beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
+          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1978,7 @@
       <c r="F43" s="1" t="inlineStr"/>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0.0, "priceThree": 0.0, "priceTwo": 0.0, "targetCaseNum": 0, "totalEhNum": 0}</t>
+          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2114,7 @@
       <c r="F47" s="1" t="inlineStr"/>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": ""}</t>
+          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": [{}]}</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3240,7 @@
       <c r="F82" s="1" t="inlineStr"/>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>{"competingGoodsInformation": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}, {"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "customerId": 0, "development": "", "exploitCode": "", "exploitId": 0, "marketConcept": "", "marketConclude": "", "marketCustomerRelationScore": 0, "marketMeeting": "", "marketQuantity": "", "productConcept": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}, {"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productName": "", "purposeType": "", "visitId": 0}</t>
+          <t>{"competingGoodsInformation": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "customerId": 0, "development": "", "exploitCode": "", "exploitId": 0, "marketConcept": "", "marketConclude": "", "marketCustomerRelationScore": 0, "marketMeeting": "", "marketQuantity": "", "productConcept": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productName": "", "purposeType": "", "visitId": 0}</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/swagger/erp.xlsx
+++ b/instance/zyjk/swagger/erp.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -115,6 +115,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -491,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -511,42 +520,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="14" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
@@ -733,7 +742,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>新增客户-APP</t>
+          <t>新增客户-APP_v2.2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -754,7 +763,7 @@
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -787,7 +796,7 @@
       <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>{"customerId": 0, "id": 0, "monthHypertensionNum": 0, "patientCaseNum": 0, "productId": 0, "productName": "", "whetherHaveProof": 0}</t>
+          <t>{"consultationCost": "?", "customerId": 0, "id": 0, "monthHypertensionNum": 0, "patientCaseNum": 0, "productId": 0, "productName": "", "whetherHaveProof": 0}</t>
         </is>
       </c>
     </row>
@@ -799,7 +808,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>编辑客户-APP</t>
+          <t>编辑客户-APP_v2.2</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -820,7 +829,7 @@
       <c r="F9" s="1" t="inlineStr"/>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -832,12 +841,12 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>新客户审批-APP</t>
+          <t>编辑医院库存-APP_v2.2</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/examineCustomerInfo</t>
+          <t>/default/customer/editHospitalInventory</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -853,7 +862,7 @@
       <c r="F10" s="1" t="inlineStr"/>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>{"approvalStatus": "", "id": 0, "regionManagerDisagreeDesc": "", "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
+          <t>{"anyeInventory": 0, "hospitalId": 0, "yiyeInventory": 0}</t>
         </is>
       </c>
     </row>
@@ -865,27 +874,28 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>客户名称搜索</t>
+          <t>新客户审批-APP</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/findCustomer</t>
+          <t>/default/customer/examineCustomerInfo</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>customerName={string}</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'customerName', 'in': 'query', 'description': 'customerName', 'required': False, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>{"approvalStatus": "", "id": 0, "regionManagerDisagreeDesc": "", "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
         </is>
       </c>
     </row>
@@ -897,28 +907,27 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>新客户待审批列表-APP</t>
+          <t>客户名称搜索</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryCustomerApprovalPendingList</t>
+          <t>/default/customer/findCustomer</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>{"currPage": 0, "pageSize": 0, "searchCondition": ""}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>customerName={string}</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'customerName', 'in': 'query', 'description': 'customerName', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
@@ -930,34 +939,20 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>根据客户id获取详情信息</t>
+          <t>获取客户列表</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryCustomerInfoById</t>
+          <t>/default/customer/getCustomerList</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>customerId={integer}</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
-        </is>
-      </c>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -967,12 +962,12 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>客户列表-APP</t>
+          <t>通过医院id获取医院库存-APP_v2.2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryCustomerInfoList</t>
+          <t>/default/customer/getHospitalInventoryByHospitalId</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -985,10 +980,14 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>{"approveMark": "", "currPage": 0, "doubleAMark": "", "meetingAfterMark": "", "meetingBeforeMark": "", "meetingDevelopMark": "", "pageSize": 0, "patientCaseMark": "", "potentialityMark": "", "searchCondition": ""}</t>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>hospitalId={*integer}</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'hospitalId', 'in': 'query', 'description': '医院id', 'required': True, 'type': 'integer', 'format': 'int32', 'allowEmptyValue': False}]</t>
         </is>
       </c>
     </row>
@@ -1000,12 +999,12 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>客户下拉列表</t>
+          <t>新客户待审批列表-APP</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryCustomerListByNameAndHospital</t>
+          <t>/default/customer/queryCustomerApprovalPendingList</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -1021,7 +1020,7 @@
       <c r="F15" s="1" t="inlineStr"/>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>{"customerName": "", "hospitalName": ""}</t>
+          <t>{"currPage": 0, "pageSize": 0, "searchCondition": ""}</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1032,12 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>根据客户id获取最新高血压数量</t>
+          <t>根据客户id获取详情信息</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryMonthHypertensionNumByCustomerId</t>
+          <t>/default/customer/queryCustomerInfoById</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -1070,12 +1069,12 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>病例列表-PC</t>
+          <t>客户列表-APP_v2.2</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryPatientCaseList</t>
+          <t>/default/customer/queryCustomerInfoList</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -1091,7 +1090,7 @@
       <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>{"beginTime": "", "currPage": 0, "customerName": "", "delegateName": "", "endTime": "", "hospitalName": "", "pageSize": 0, "productId": 0}</t>
+          <t>{"approveMark": "", "currPage": 0, "doubleAMark": "", "meetingAfterMark": "", "meetingBeforeMark": "", "meetingDevelopMark": "", "pageSize": 0, "patientCaseMark": "", "potentialityMark": "", "searchCondition": ""}</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1102,12 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>根据客户id获取产品下拉</t>
+          <t>客户下拉列表</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/queryProductListByCustomerId</t>
+          <t>/default/customer/queryCustomerListByNameAndHospital</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -1121,14 +1120,10 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>customerId={integer}</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
+      <c r="F18" s="1" t="inlineStr"/>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>{"customerName": "", "hospitalName": ""}</t>
         </is>
       </c>
     </row>
@@ -1140,12 +1135,12 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>修改客情关系评分</t>
+          <t>根据客户id获取最新高血压数量</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/updateCustomerRelations</t>
+          <t>/default/customer/queryMonthHypertensionNumByCustomerId</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -1160,12 +1155,12 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>customerId={*string}&amp;score={*string}</t>
+          <t>customerId={integer}</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'string'}, {'name': 'score', 'in': 'query', 'description': '客情关系评分', 'required': True, 'type': 'string'}]</t>
+          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1172,12 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>客户Excel导入</t>
+          <t>病例列表-PC</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>/default/customer/uploadExcel</t>
+          <t>/default/customer/queryPatientCaseList</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -1192,30 +1187,30 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>multipart/form-data</t>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>{"beginTime": "", "currPage": 0, "customerId": 0, "delegateId": 0, "endTime": "", "hospitalId": 0, "pageSize": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>医院管理</t>
+          <t>客户管理</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>新增医院信息</t>
+          <t>病例管理-PC</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>/default/hospital/createHospital</t>
+          <t>/default/customer/queryPatientCaseManage</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -1231,24 +1226,24 @@
       <c r="F21" s="1" t="inlineStr"/>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>{"abbreviation": "", "area": "", "chineseMedicine": "", "createdAt": "", "createdBy": "", "id": 0, "leiyunOn": "", "level": "", "name": "", "shanghaiMedicine": "", "state": 0, "updatedAt": "", "updatedBy": ""}</t>
+          <t>{"beginTime": "", "currPage": 0, "customerId": 0, "delegateId": 0, "endTime": "", "hospitalId": 0, "pageSize": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>医院管理</t>
+          <t>客户管理</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>根据医院id删除本条数据</t>
+          <t>根据客户id获取产品下拉</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>/default/hospital/deleteById</t>
+          <t>/default/customer/queryProductListByCustomerId</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -1263,29 +1258,29 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>id={integer}</t>
+          <t>customerId={integer}</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>医院管理</t>
+          <t>客户管理</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>查询医院列表</t>
+          <t>修改客情关系评分</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>/default/hospital/queryHospitalList</t>
+          <t>/default/customer/updateCustomerRelations</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -1298,27 +1293,31 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr"/>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>{"hospitalName": "", "pageNum": 0, "pageSize": 0}</t>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>customerId={*string}&amp;score={*string}</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'string'}, {'name': 'score', 'in': 'query', 'description': '客情关系评分', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>医院管理</t>
+          <t>客户管理</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>根据会议名称获取医院列表信息</t>
+          <t>客户Excel导入</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>/default/hospital/queryHospitalListByName</t>
+          <t>/default/customer/uploadExcel</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -1328,17 +1327,13 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>hospitalName={string}</t>
-        </is>
-      </c>
+          <t>multipart/form-data</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr"/>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}]</t>
+          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
@@ -1350,12 +1345,12 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>根据医院id修改本条数据</t>
+          <t>新增医院信息</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>/default/hospital/updateHospitalById</t>
+          <t>/default/hospital/createHospital</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -1378,17 +1373,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>会议管理</t>
+          <t>医院管理</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>会议反馈-APP</t>
+          <t>根据医院id删除本条数据</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/appMeetingFeedback</t>
+          <t>/default/hospital/deleteById</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -1401,60 +1396,54 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>id={integer}</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>会议管理</t>
+          <t>医院管理</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>会议反馈修改-APP</t>
+          <t>根据客户获取医院列表信息</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/appMeetingFeedbackEdit</t>
+          <t>/default/hospital/queryHospitalByCustomer</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr"/>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"customerId": 0, "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>会议管理</t>
+          <t>医院管理</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>会议反馈详情查询-APP</t>
+          <t>查询医院列表</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/appQueryMeetingFeedback</t>
+          <t>/default/hospital/queryHospitalList</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -1467,31 +1456,27 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>meetingId={*integer}</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+      <c r="F28" s="1" t="inlineStr"/>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>{"hospitalName": "", "pageNum": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>会议管理</t>
+          <t>医院管理</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>根据会议id获取会议信息-APP</t>
+          <t>根据会议名称获取医院列表信息</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/appQueryMeetingInfoById</t>
+          <t>/default/hospital/queryHospitalListByName</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
@@ -1506,29 +1491,29 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>meetingId={integer}</t>
+          <t>hospitalName={string}</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>[{'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>会议管理</t>
+          <t>医院管理</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>会议列表-APP</t>
+          <t>根据医院id修改本条数据</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/appQueryMeetingInfoPage</t>
+          <t>/default/hospital/updateHospitalById</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -1544,7 +1529,7 @@
       <c r="F30" s="1" t="inlineStr"/>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "meetingStatus": 0, "pageSize": 0, "searchCondition": ""}</t>
+          <t>{"abbreviation": "", "area": "", "chineseMedicine": "", "createdAt": "", "createdBy": "", "id": 0, "leiyunOn": "", "level": "", "name": "", "shanghaiMedicine": "", "state": 0, "updatedAt": "", "updatedBy": ""}</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1541,12 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>新增会议申请-PC</t>
+          <t>会议反馈-APP</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/applyMeetingInfo</t>
+          <t>/default/meeting/appMeetingFeedback</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -1577,7 +1562,7 @@
       <c r="F31" s="1" t="inlineStr"/>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1574,12 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>会议分析-代表</t>
+          <t>会议反馈修改-APP</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/delegateMeetingAnalysis</t>
+          <t>/default/meeting/appMeetingFeedbackEdit</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -1610,7 +1595,7 @@
       <c r="F32" s="1" t="inlineStr"/>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "pageSize": 0}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1607,22 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>删除会议申请-PC</t>
+          <t>会议反馈详情查询-APP</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/deleteMeetingInfo</t>
+          <t>/default/meeting/appQueryMeetingFeedback</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
@@ -1654,12 +1644,12 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>修改会议申请-PC</t>
+          <t>根据会议id获取会议信息-APP</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/editMeetingInfo</t>
+          <t>/default/meeting/appQueryMeetingInfoById</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -1672,10 +1662,14 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr"/>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>meetingId={integer}</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1681,12 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>会议审批-PC</t>
+          <t>会议列表-APP</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/examineMeetingInfo</t>
+          <t>/default/meeting/appQueryMeetingInfoPage</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -1708,7 +1702,7 @@
       <c r="F35" s="1" t="inlineStr"/>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>{"id": 0, "marketingDirectorExamine": 0, "marketingDirectorExamineDesc": "", "marketingDirectorExamineTime": "", "marketingDirectorId": 0, "marketingDirectorName": "", "regionManagerDisagreeDesc": "", "regionManagerExamine": 0, "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
+          <t>{"currPage": 0, "meetingStatus": 0, "pageSize": 0, "searchCondition": ""}</t>
         </is>
       </c>
     </row>
@@ -1720,27 +1714,28 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>投入产出分析-客户</t>
+          <t>新增会议申请-PC</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/inOutCustomerAnalyse</t>
+          <t>/default/meeting/applyMeetingInfo</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t>endDate={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;startDate={string}</t>
-        </is>
-      </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr"/>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -1752,27 +1747,28 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>投入产出分析-医院</t>
+          <t>会议分析-代表</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/inOutHospitalAnalyse</t>
+          <t>/default/meeting/delegateMeetingAnalysis</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t>endDate={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;startDate={string}</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr"/>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "deptId": "", "endTime": "", "orderName": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -1784,28 +1780,27 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>会议分析-会议</t>
+          <t>删除会议申请-PC</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/meetingAnalysis</t>
+          <t>/default/meeting/deleteMeetingInfo</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr"/>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>{"beginTime": "", "currPage": 0, "delegateId": 0, "endTime": "", "pageSize": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>meetingId={*integer}</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1812,12 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>会议分析-产品观念</t>
+          <t>修改会议申请-PC</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/productMeetingAnalysis</t>
+          <t>/default/meeting/editMeetingInfo</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -1838,7 +1833,7 @@
       <c r="F39" s="1" t="inlineStr"/>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "meetingId": 0, "pageSize": 0}</t>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1845,12 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>根据会议id获取计划参会者下拉列表</t>
+          <t>会议审批-PC</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/queryJoinMeetingPeopleList</t>
+          <t>/default/meeting/examineMeetingInfo</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -1868,14 +1863,10 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>meetingId={integer}</t>
-        </is>
-      </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
+      <c r="F40" s="1" t="inlineStr"/>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>{"customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "id": 0, "marketingDirectorExamine": 0, "marketingDirectorExamineDesc": "", "marketingDirectorExamineTime": "", "marketingDirectorId": 0, "marketingDirectorName": "", "regionManagerDisagreeDesc": "", "regionManagerExamine": 0, "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1878,27 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>会议反馈详情查询-PC</t>
+          <t>重点客户投入有效性分析</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/queryMeetingFeedback</t>
+          <t>/default/meeting/importCustomerAnalyse</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>meetingId={*integer}</t>
+          <t>deptId={string}&amp;month={string}&amp;searchId={string}</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>[{'name': 'deptId', 'in': 'query', 'description': 'deptId', 'required': False, 'type': 'string'}, {'name': 'month', 'in': 'query', 'description': 'month', 'required': False, 'type': 'string'}, {'name': 'searchId', 'in': 'query', 'description': 'searchId', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
@@ -1924,78 +1910,76 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>会议列表-PC</t>
+          <t>投入产出分析-客户</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>/default/meeting/queryMeetingInfoPage</t>
+          <t>/default/meeting/inOutCustomerAnalyse</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr"/>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>endDate={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;startDate={string}</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>新增潜力信息</t>
+          <t>投入产出分析-医院</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/addPotentialInfo</t>
+          <t>/default/meeting/inOutHospitalAnalyse</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr"/>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>deptId={string}&amp;endDate={string}&amp;hospitalName={string}&amp;orderName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;sort={string}&amp;startDate={string}</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'deptId', 'in': 'query', 'description': 'deptId', 'required': False, 'type': 'string'}, {'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'orderName', 'in': 'query', 'description': 'orderName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sort', 'in': 'query', 'description': 'sort', 'required': False, 'type': 'string'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>潜力信息审批</t>
+          <t>会议分析-会议</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/approval</t>
+          <t>/default/meeting/meetingAnalysis</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
@@ -2011,24 +1995,24 @@
       <c r="F44" s="1" t="inlineStr"/>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>{"approvalStatus": "", "id": 0, "rejectReason": ""}</t>
+          <t>{"beginTime": "", "currPage": 0, "delegateId": 0, "endTime": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>潜力信息审批列表</t>
+          <t>会议分析-产品观念</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/approvalList</t>
+          <t>/default/meeting/productMeetingAnalysis</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
@@ -2044,24 +2028,24 @@
       <c r="F45" s="1" t="inlineStr"/>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>{"approvalStatus": "", "searchName": ""}</t>
+          <t>{"currPage": 0, "meetingId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>客户Id查询潜力信息是否存在</t>
+          <t>根据会议id获取计划参会者下拉列表</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/queryByCustomerId</t>
+          <t>/default/meeting/queryJoinMeetingPeopleList</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
@@ -2076,29 +2060,29 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>customerId={*integer}</t>
+          <t>meetingId={integer}</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>潜力信息分页查询</t>
+          <t>会议反馈详情查询-PC</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/queryPage</t>
+          <t>/default/meeting/queryMeetingFeedback</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
@@ -2111,27 +2095,31 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": [{}]}</t>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>meetingId={*integer}</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>患者潜力管理</t>
+          <t>会议管理</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Excel导入</t>
+          <t>会议列表-PC</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>/default/potential/uploadExcel</t>
+          <t>/default/meeting/queryMeetingInfoPage</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
@@ -2141,30 +2129,30 @@
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>multipart/form-data</t>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>患者潜力修改记录</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>新增潜力修改记录</t>
+          <t>新增潜力信息</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>/default/potentialRecord/addRecord</t>
+          <t>/default/potential/addPotentialInfo</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
@@ -2180,24 +2168,24 @@
       <c r="F49" s="1" t="inlineStr"/>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "potentialId": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
+          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>患者潜力修改记录</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>潜力修改记录审批</t>
+          <t>潜力信息审批</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>/default/potentialRecord/executeApproval</t>
+          <t>/default/potential/approval</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
@@ -2220,17 +2208,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>患者潜力修改记录</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>潜力修改记录审批列表</t>
+          <t>潜力信息审批列表</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>/default/potentialRecord/queryApprovalList</t>
+          <t>/default/potential/approvalList</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
@@ -2253,17 +2241,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>患者潜力修改记录</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>查询潜力修改记录</t>
+          <t>患者数管理Excel导入</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>/default/potentialRecord/queryByPotentialId</t>
+          <t>/default/potential/potentialUploadExcel</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
@@ -2273,34 +2261,30 @@
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
-        <is>
-          <t>potentialId={*integer}</t>
-        </is>
-      </c>
+          <t>multipart/form-data</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr"/>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'potentialId', 'in': 'query', 'description': '潜力信息Id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>患者潜力修改记录</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>更新潜力修改记录</t>
+          <t>患者管理分页查询</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>/default/potentialRecord/updateRecord</t>
+          <t>/default/potential/productPatientQueryPage</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
@@ -2316,46 +2300,61 @@
       <c r="F53" s="1" t="inlineStr"/>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "id": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
+          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "month": "", "pageNum": 0, "pageSize": 0, "productId": 0, "regionManager": "", "userIds": [{}]}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>产品管理</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>所有产品查询</t>
+          <t>客户Id查询潜力信息是否存在</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>/default/product/queryProduct</t>
+          <t>/default/potential/queryByCustomerId</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>customerId={*integer}</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>产品观念管理</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>产品默认的产品观念新增</t>
+          <t>潜力信息分页查询_v2.2</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>/default/productConcept/addDefaultProductConcept</t>
+          <t>/default/potential/queryPage</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
@@ -2371,24 +2370,24 @@
       <c r="F55" s="1" t="inlineStr"/>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>{"customerId": 0, "productId": 0}</t>
+          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": [{}]}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>产品观念管理</t>
+          <t>患者潜力管理</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>产品观念新增</t>
+          <t>Excel导入</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>/default/productConcept/addProductConcept</t>
+          <t>/default/potential/uploadExcel</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
@@ -2398,30 +2397,30 @@
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>application/json</t>
+          <t>multipart/form-data</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr">
-        <is>
-          <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>产品观念管理</t>
+          <t>患者潜力修改记录</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>产品观念删除</t>
+          <t>新增潜力修改记录</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>/default/productConcept/deleteProductConcept</t>
+          <t>/default/potentialRecord/addRecord</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
@@ -2434,31 +2433,27 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
-        <is>
-          <t>id={*integer}</t>
-        </is>
-      </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+      <c r="F57" s="1" t="inlineStr"/>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "potentialId": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>产品观念管理</t>
+          <t>患者潜力修改记录</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>产品观念更新</t>
+          <t>潜力修改记录审批</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>/default/productConcept/editProductConcept</t>
+          <t>/default/potentialRecord/executeApproval</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
@@ -2474,24 +2469,24 @@
       <c r="F58" s="1" t="inlineStr"/>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
+          <t>{"approvalStatus": "", "id": 0, "rejectReason": ""}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>产品观念管理</t>
+          <t>患者潜力修改记录</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>产品观念查询</t>
+          <t>潜力修改记录审批列表</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>/default/productConcept/queryProductConcept</t>
+          <t>/default/potentialRecord/queryApprovalList</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
@@ -2507,185 +2502,182 @@
       <c r="F59" s="1" t="inlineStr"/>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>{"customerId": 0, "productId": 0}</t>
+          <t>{"approvalStatus": "", "searchName": ""}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>患者潜力修改记录</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>获取开发单医院下所有的产品</t>
+          <t>查询潜力修改记录</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/findHospitalDev</t>
+          <t>/default/potentialRecord/queryByPotentialId</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>devId={integer}</t>
+          <t>potentialId={*integer}</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'devId', 'in': 'query', 'description': 'devId', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+          <t>[{'name': 'potentialId', 'in': 'query', 'description': '潜力信息Id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>患者潜力修改记录</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>产品开发单详情</t>
+          <t>更新潜力修改记录</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/getProductDevSchedule</t>
+          <t>/default/potentialRecord/updateRecord</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F61" s="1" t="inlineStr">
-        <is>
-          <t>id={integer}</t>
-        </is>
-      </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr"/>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "id": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>产品管理</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>产品开发单跟进</t>
+          <t>所有产品查询</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/productDevFollowUp</t>
+          <t>/default/product/queryProduct</t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr">
-        <is>
-          <t>{"drugMeetingStartTime": "", "id": 0, "improvementAssess": "", "meetingAssess": "", "passMeetingRule": "", "passMeetingTime": "", "pharmacyConfirmInfo": "", "purchaseTime": "", "upBillDeptId": "", "upBillDeptStatus": ""}</t>
+          <t>get</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>产品观念管理</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度管理列表-pc</t>
+          <t>产品默认的产品观念新增</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/productDevScheduleList</t>
+          <t>/default/productConcept/addDefaultProductConcept</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
-        <is>
-          <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
-        </is>
-      </c>
-      <c r="H63" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr"/>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>产品观念管理</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度管理列表-小程序</t>
+          <t>产品观念新增</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/productDevScheduleListApp</t>
+          <t>/default/productConcept/addProductConcept</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
-        <is>
-          <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
-        </is>
-      </c>
-      <c r="H64" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr"/>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>产品观念管理</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>产品开发单拜访</t>
+          <t>产品观念删除</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/productDevVisit</t>
+          <t>/default/productConcept/deleteProductConcept</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
@@ -2698,27 +2690,31 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr">
-        <is>
-          <t>{"businessDeanId": 0, "businessDeanManner": "", "businessDeanName": "", "deanId": 0, "deanManner": "", "deanName": "", "id": 0, "medicalDirectorId": 0, "medicalDirectorManner": "", "medicalDirectorName": "", "mentionBillDirectorId": 0, "mentionBillDirectorManner": "", "mentionBillDirectorName": "", "otherMember": "", "pharmacyDirectorId": 0, "pharmacyDirectorManner": "", "pharmacyDirectorName": ""}</t>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>id={*integer}</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>产品开发进度单</t>
+          <t>产品观念管理</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Excel导入</t>
+          <t>产品观念更新</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>/default/productDevSchedule/uploadExcel</t>
+          <t>/default/productConcept/editProductConcept</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
@@ -2728,30 +2724,30 @@
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>multipart/form-data</t>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>协访列表</t>
+          <t>产品观念管理</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>创建协访计划</t>
+          <t>产品观念查询</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>/default/synergy/createSynergyPlan</t>
+          <t>/default/productConcept/queryProductConcept</t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
@@ -2767,90 +2763,88 @@
       <c r="F67" s="1" t="inlineStr"/>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>{"checkTab": "", "planStartTime": "", "problemTab": "", "synergyName": "", "tutorialTab": "", "visitId": 0}</t>
+          <t>{"customerId": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>协访列表</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>协访结果反馈</t>
+          <t>获取开发单医院下所有的产品</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>/default/synergy/feedbackResult</t>
+          <t>/default/productDevSchedule/findHospitalDev</t>
         </is>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr">
-        <is>
-          <t>{"checkBasicInfo": "", "checkCustomer": "", "checkMeeting": "", "goalSetting": "", "problemResult": "", "productKnowledge": "", "recordId": 0, "tutorialResult": "", "visitSkill": ""}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>devId={integer}</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'devId', 'in': 'query', 'description': 'devId', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>协访列表</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>我的协访计划列表</t>
+          <t>产品开发单详情</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>/default/synergy/querySynergyPlanList</t>
+          <t>/default/productDevSchedule/getProductDevSchedule</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr">
-        <is>
-          <t>{"searchName": "", "synergyStatus": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>id={integer}</t>
+        </is>
+      </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>系统配置</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>获取配置选项</t>
+          <t>产品开发单跟进</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>/default/systemConfig/getConfigList</t>
+          <t>/default/productDevSchedule/productDevFollowUp</t>
         </is>
       </c>
       <c r="D70" s="1" t="inlineStr">
@@ -2863,31 +2857,27 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr">
-        <is>
-          <t>configName={*string}</t>
-        </is>
-      </c>
-      <c r="H70" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'configName', 'in': 'query', 'description': '配置类型', 'required': True, 'type': 'string'}]</t>
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>{"drugMeetingStartTime": "", "id": 0, "improvementAssess": "", "meetingAssess": "", "passMeetingRule": "", "passMeetingTime": "", "pharmacyConfirmInfo": "", "purchaseTime": "", "upBillDeptId": "", "upBillDeptStatus": ""}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>菜单管理接口</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>菜单查询</t>
+          <t>开发计划总揽</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>/default/systemsMenu/menu</t>
+          <t>/default/productDevSchedule/productDevOverview</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
@@ -2895,21 +2885,22 @@
           <t>get</t>
         </is>
       </c>
+      <c r="F71" s="1" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>job测试</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>工作总结-00：00-指定日期数据记录</t>
+          <t>产品开发进度管理列表-pc</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>/default/task/dataOfYesterday</t>
+          <t>/default/productDevSchedule/productDevScheduleList</t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr">
@@ -2919,66 +2910,61 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>key={*string}&amp;queryDate={*string}</t>
+          <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
         </is>
       </c>
       <c r="H72" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'queryDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
+          <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>job测试</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>客户取消会后标识定时任务</t>
+          <t>产品开发进度管理列表-小程序</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>/default/task/executeCustomerMarkTask</t>
+          <t>/default/productDevSchedule/productDevScheduleListApp</t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E73" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>date={string}&amp;key={*string}</t>
+          <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
         </is>
       </c>
       <c r="H73" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'date', 'in': 'query', 'description': 'yyyy-MM-dd', 'required': False, 'type': 'string'}, {'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
+          <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>job测试</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>高潜标识</t>
+          <t>产品开发单拜访</t>
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>/default/task/executeTask</t>
+          <t>/default/productDevSchedule/productDevVisit</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
@@ -2991,95 +2977,93 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F74" s="1" t="inlineStr">
-        <is>
-          <t>key={*string}</t>
-        </is>
-      </c>
-      <c r="H74" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
+      <c r="F74" s="1" t="inlineStr"/>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>{"businessDeanId": 0, "businessDeanManner": "", "businessDeanName": "", "deanId": 0, "deanManner": "", "deanName": "", "id": 0, "medicalDirectorId": 0, "medicalDirectorManner": "", "medicalDirectorName": "", "mentionBillDirectorId": 0, "mentionBillDirectorManner": "", "mentionBillDirectorName": "", "otherMember": "", "pharmacyDirectorId": 0, "pharmacyDirectorManner": "", "pharmacyDirectorName": ""}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>job测试</t>
+          <t>产品开发进度单</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>工作总结-19：30-今日待读空记录</t>
+          <t>Excel导入</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>/default/task/insertNullRecord</t>
+          <t>/default/productDevSchedule/uploadExcel</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F75" s="1" t="inlineStr">
-        <is>
-          <t>key={*string}</t>
-        </is>
-      </c>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>multipart/form-data</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr"/>
       <c r="H75" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
+          <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>job测试</t>
+          <t>协访列表</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>工作总结-测试生成数据</t>
+          <t>创建协访计划</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>/default/task/testStatData</t>
+          <t>/default/synergy/createSynergyPlan</t>
         </is>
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F76" s="1" t="inlineStr">
-        <is>
-          <t>key={*string}&amp;strDate={*string}</t>
-        </is>
-      </c>
-      <c r="H76" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'strDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>{"checkTab": "", "planStartTime": "", "problemTab": "", "synergyName": "", "tutorialTab": "", "visitId": 0}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>用户信息</t>
+          <t>协访列表</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>区域经理列表</t>
+          <t>协访结果反馈</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>/default/user/getAreaManagerList</t>
+          <t>/default/synergy/feedbackResult</t>
         </is>
       </c>
       <c r="D77" s="1" t="inlineStr">
@@ -3090,23 +3074,29 @@
       <c r="E77" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr"/>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>{"checkBasicInfo": "", "checkCustomer": "", "checkMeeting": "", "goalSetting": "", "problemResult": "", "productKnowledge": "", "recordId": 0, "tutorialResult": "", "visitSkill": ""}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>用户信息</t>
+          <t>协访列表</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>查询代表列表</t>
+          <t>协访分析</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>/default/user/getDelegateList</t>
+          <t>/default/synergy/queryAnalyseSynergyPlan</t>
         </is>
       </c>
       <c r="D78" s="1" t="inlineStr">
@@ -3117,23 +3107,29 @@
       <c r="E78" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>{"endTime": "", "startTime": "", "uid": 0}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>用户信息</t>
+          <t>协访列表</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>区域经理、医药代表用户列表</t>
+          <t>我的协访计划列表</t>
         </is>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>/default/user/getUser</t>
+          <t>/default/synergy/querySynergyPlanList</t>
         </is>
       </c>
       <c r="D79" s="1" t="inlineStr">
@@ -3146,31 +3142,27 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr">
-        <is>
-          <t>name={string}</t>
-        </is>
-      </c>
-      <c r="H79" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'name', 'in': 'query', 'description': 'name', 'required': False, 'type': 'string'}]</t>
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>{"privName": "", "searchName": "", "synergyStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>用户信息</t>
+          <t>协访列表</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>获取当前登录人用户信息</t>
+          <t>我的协访计划列表(ERP团队主管)_v2.2</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>/default/user/getUserInfo</t>
+          <t>/default/synergy/querySynergyPlanList2</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
@@ -3181,23 +3173,29 @@
       <c r="E80" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>{"privName": "", "searchName": "", "synergyStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>用户信息</t>
+          <t>系统配置</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>根据登录人信息获取自己及下级用户列表</t>
+          <t>获取配置选项</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>/default/user/getUserListByLoginUser</t>
+          <t>/default/systemConfig/getConfigList</t>
         </is>
       </c>
       <c r="D81" s="1" t="inlineStr">
@@ -3208,89 +3206,87 @@
       <c r="E81" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>configName={*string}</t>
+        </is>
+      </c>
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'configName', 'in': 'query', 'description': '配置类型', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>菜单管理接口</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>录入拜访结果</t>
+          <t>菜单查询</t>
         </is>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/accomplishVisit</t>
+          <t>/default/systemsMenu/menu</t>
         </is>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F82" s="1" t="inlineStr"/>
-      <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t>{"competingGoodsInformation": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "customerId": 0, "development": "", "exploitCode": "", "exploitId": 0, "marketConcept": "", "marketConclude": "", "marketCustomerRelationScore": 0, "marketMeeting": "", "marketQuantity": "", "productConcept": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productName": "", "purposeType": "", "visitId": 0}</t>
+          <t>get</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>job测试</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>创建拜访计划</t>
+          <t>工作总结-00：00-指定日期数据记录</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/createVisit</t>
+          <t>/default/task/dataOfYesterday</t>
         </is>
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E83" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F83" s="1" t="inlineStr"/>
-      <c r="G83" s="1" t="inlineStr">
-        <is>
-          <t>{"customerId": 0, "customerName": "", "exploit": "", "exploitCode": "", "exploitId": 0, "exploitPriv": 0, "goalCase": 0, "hospitalId": 0, "hospitalName": "", "meeting": "", "meetingId": 0, "meetingPriv": 0, "nowCase": 0, "planStartTime": "", "potential": 0, "productConcept": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "productName": "", "purpose": "", "purposeType": "", "relation": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>key={*string}&amp;queryDate={*string}</t>
+        </is>
+      </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'queryDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>job测试</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>删除拜访计划</t>
+          <t>客户取消会后标识定时任务</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/deleteVisit</t>
+          <t>/default/task/executeCustomerMarkTask</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
@@ -3303,27 +3299,31 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr">
-        <is>
-          <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>date={string}&amp;key={*string}</t>
+        </is>
+      </c>
+      <c r="H84" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'date', 'in': 'query', 'description': 'yyyy-MM-dd', 'required': False, 'type': 'string'}, {'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>job测试</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>查询该客户在产品开发中的角色</t>
+          <t>高潜标识</t>
         </is>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/getCustomerInDevRole</t>
+          <t>/default/task/executeTask</t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
@@ -3336,212 +3336,194 @@
           <t>application/json</t>
         </is>
       </c>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr">
-        <is>
-          <t>{"customerId": 0, "devScheduleId": 0}</t>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>key={*string}</t>
+        </is>
+      </c>
+      <c r="H85" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>job测试</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>可选产品开发会议</t>
+          <t>工作总结-19：30-今日待读空记录</t>
         </is>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/getDevScheduleByClientId</t>
+          <t>/default/task/insertNullRecord</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr">
-        <is>
-          <t>{"customerId": 0, "devScheduleId": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>key={*string}</t>
+        </is>
+      </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>job测试</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>可选会议</t>
+          <t>工作总结-测试生成数据</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/getMeetingByCustomerId</t>
+          <t>/default/task/testStatData</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr">
-        <is>
-          <t>{"customerId": 0, "devScheduleId": 0}</t>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>key={*string}&amp;strDate={*string}</t>
+        </is>
+      </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'strDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>根据拜访id查询拜访详情</t>
+          <t>包含层级关系的区域经理列表</t>
         </is>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/getVisitPurpose</t>
+          <t>/default/user/getAreaManager</t>
         </is>
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
           <t>get</t>
-        </is>
-      </c>
-      <c r="F88" s="1" t="inlineStr">
-        <is>
-          <t>visitId={*integer}</t>
-        </is>
-      </c>
-      <c r="H88" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'visitId', 'in': 'query', 'description': 'visitId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>根据拜访目的字段查询市场对应拜访结果</t>
+          <t>区域经理列表</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/getVisitPurposeResult</t>
+          <t>/default/user/getAreaManagerList</t>
         </is>
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F89" s="1" t="inlineStr">
-        <is>
-          <t>purpose={*string}</t>
-        </is>
-      </c>
-      <c r="H89" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'purpose', 'in': 'query', 'description': 'purpose', 'required': True, 'type': 'string'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>根据客户id获取产品潜力和竞品信息</t>
+          <t>根据部门查询代表</t>
         </is>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/potential</t>
+          <t>/default/user/getDelegateByManager</t>
         </is>
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr">
-        <is>
-          <t>{"customerId": 0, "productId": 0, "productName": ""}</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>拜访目的</t>
+          <t>查询代表列表</t>
         </is>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/purpose</t>
+          <t>/default/user/getDelegateList</t>
         </is>
       </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>查询下属拜访计划</t>
+          <t>根据辅助角色串获取erp角色名称_v2.2</t>
         </is>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/querySubordinatePlan</t>
+          <t>/default/user/getErpRoleNameByUserPrivOther</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
@@ -3556,61 +3538,66 @@
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t>searchName={string}</t>
+          <t>userPrivOther={*string}</t>
         </is>
       </c>
       <c r="H92" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'searchName', 'in': 'query', 'description': '医生、医院、代表', 'required': False, 'type': 'string'}]</t>
+          <t>[{'name': 'userPrivOther', 'in': 'query', 'description': '辅助角色串', 'required': True, 'type': 'string', 'allowEmptyValue': False}]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>客情关系</t>
+          <t>区域经理、医药代表用户列表</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/relation</t>
+          <t>/default/user/getUser</t>
         </is>
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
         </is>
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t>customerId={*integer}</t>
+          <t>name={string}</t>
         </is>
       </c>
       <c r="H93" s="1" t="inlineStr">
         <is>
-          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>[{'name': 'name', 'in': 'query', 'description': 'name', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>拜访计划状态修改</t>
+          <t>获取当前登录人用户信息</t>
         </is>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/updateVisit</t>
+          <t>/default/user/getUserInfo</t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
@@ -3621,29 +3608,23 @@
       <c r="E94" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
-        </is>
-      </c>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr">
-        <is>
-          <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>拜访相关接口</t>
+          <t>用户信息</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>拜访分析报表</t>
+          <t>根据登录人信息获取自己及下级用户列表</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/visitAnalysis</t>
+          <t>/default/user/getUserListByLoginUser</t>
         </is>
       </c>
       <c r="D95" s="1" t="inlineStr">
@@ -3654,12 +3635,6 @@
       <c r="E95" s="1" t="inlineStr">
         <is>
           <t>application/json</t>
-        </is>
-      </c>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr">
-        <is>
-          <t>{"endTime": "", "searchName": "", "starTime": ""}</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3646,12 @@
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>拜访计划列表</t>
+          <t>录入拜访结果</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>/default/visit/visitList</t>
+          <t>/default/visit/accomplishVisit</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
@@ -3692,96 +3667,618 @@
       <c r="F96" s="1" t="inlineStr"/>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "pageSize": 0, "searchParams": "", "type": 0}</t>
+          <t>{"competingGoodsInformation": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "customerId": 0, "development": "", "exploitCode": "", "exploitId": 0, "marketConcept": "", "marketConclude": "", "marketCustomerRelationScore": 0, "marketMeeting": "", "marketQuantity": "", "productConcept": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productName": "", "purposeType": "", "visitId": 0}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>工作总结</t>
+          <t>拜访相关接口</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>APP-未读总数</t>
+          <t>创建拜访计划</t>
         </is>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>/default/workSummary/getSumOfUnread</t>
+          <t>/default/visit/createVisit</t>
         </is>
       </c>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr"/>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "customerName": "", "exploit": "", "exploitCode": "", "exploitId": 0, "exploitPriv": 0, "goalCase": 0, "hospitalId": 0, "hospitalName": "", "meeting": "", "meetingId": 0, "meetingPriv": 0, "nowCase": 0, "planStartTime": "", "potential": 0, "productConcept": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "productName": "", "purpose": "", "purposeType": "", "relation": 0}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>工作总结</t>
+          <t>拜访相关接口</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>APP-消息分页列表</t>
+          <t>删除拜访计划</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>/default/workSummary/pageList</t>
+          <t>/default/visit/deleteVisit</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F98" s="1" t="inlineStr">
-        <is>
-          <t>currPage={integer}&amp;pageSize={integer}</t>
-        </is>
-      </c>
-      <c r="H98" s="1" t="inlineStr">
-        <is>
-          <t>[{'name': 'currPage', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr"/>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>查询该客户在产品开发中的角色</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/getCustomerInDevRole</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr"/>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "devScheduleId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>可选产品开发会议</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/getDevScheduleByClientId</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr"/>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "devScheduleId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>可选会议</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/getMeetingByCustomerId</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr"/>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "devScheduleId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>根据拜访id查询拜访详情</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/getVisitPurpose</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>visitId={*integer}</t>
+        </is>
+      </c>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'visitId', 'in': 'query', 'description': 'visitId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>根据拜访目的字段查询市场对应拜访结果</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/getVisitPurposeResult</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>purpose={*string}</t>
+        </is>
+      </c>
+      <c r="H103" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'purpose', 'in': 'query', 'description': 'purpose', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>根据客户id获取产品潜力和竞品信息</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/potential</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr"/>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>{"customerId": 0, "productId": 0, "productName": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>拜访目的</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/purpose</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>查询下属拜访计划</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/querySubordinatePlan</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>searchName={string}</t>
+        </is>
+      </c>
+      <c r="H106" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'searchName', 'in': 'query', 'description': '医生、医院、代表', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>查询下属拜访计划(ERP团队主管)_v2.2</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/querySubordinatePlan2</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>privName={string}&amp;searchName={string}</t>
+        </is>
+      </c>
+      <c r="H107" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'privName', 'in': 'query', 'description': '角色名称', 'required': False, 'type': 'string', 'allowEmptyValue': False}, {'name': 'searchName', 'in': 'query', 'description': '医生、医院、代表', 'required': False, 'type': 'string', 'allowEmptyValue': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>客情关系</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/relation</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>customerId={*integer}</t>
+        </is>
+      </c>
+      <c r="H108" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>拜访计划状态修改</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/updateVisit</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr"/>
+      <c r="G109" s="1" t="inlineStr">
+        <is>
+          <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>拜访分析报表</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/visitAnalysis</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr"/>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>{"currPage": 0, "deptId": "", "endTime": "", "pageSize": 0, "searchId": "", "searchName": "", "starTime": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>拜访分析明细报表</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/visitAnalysisInfoList</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr"/>
+      <c r="G111" s="1" t="inlineStr">
+        <is>
+          <t>{"currPage": 0, "deptId": "", "endTime": "", "pageSize": 0, "searchId": "", "searchName": "", "starTime": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>拜访相关接口</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>拜访计划列表</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>/default/visit/visitList</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F112" s="1" t="inlineStr"/>
+      <c r="G112" s="1" t="inlineStr">
+        <is>
+          <t>{"currPage": 0, "pageSize": 0, "searchParams": "", "type": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
           <t>工作总结</t>
         </is>
       </c>
-      <c r="B99" s="1" t="inlineStr">
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>APP-未读总数</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>/default/workSummary/getSumOfUnread</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>工作总结</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>APP-消息分页列表</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>/default/workSummary/pageList</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr">
+        <is>
+          <t>currPage={integer}&amp;pageSize={integer}</t>
+        </is>
+      </c>
+      <c r="H114" s="1" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>工作总结</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
         <is>
           <t>APP-更新未读为已读</t>
         </is>
       </c>
-      <c r="C99" s="1" t="inlineStr">
+      <c r="C115" s="1" t="inlineStr">
         <is>
           <t>/default/workSummary/updateUnreadToRead</t>
         </is>
       </c>
-      <c r="D99" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E99" s="1" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F99" s="1" t="inlineStr">
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
         <is>
           <t>readId={integer}</t>
         </is>
       </c>
-      <c r="H99" s="1" t="inlineStr">
+      <c r="H115" s="1" t="inlineStr">
         <is>
           <t>[{'name': 'readId', 'in': 'query', 'description': '消息id（-1表示一键已读）', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>

--- a/instance/zyjk/swagger/erp.xlsx
+++ b/instance/zyjk/swagger/erp.xlsx
@@ -17,22 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -43,7 +34,11 @@
     </font>
     <font>
       <name val="微软雅黑"/>
-      <color rgb="00000000"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -84,23 +79,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -117,22 +102,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,7 +231,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -520,42 +532,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
@@ -590,7 +602,7 @@
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": "?", "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
+          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
@@ -730,7 +742,7 @@
       <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": "?", "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
+          <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
@@ -763,7 +775,7 @@
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -796,7 +808,7 @@
       <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>{"consultationCost": "?", "customerId": 0, "id": 0, "monthHypertensionNum": 0, "patientCaseNum": 0, "productId": 0, "productName": "", "whetherHaveProof": 0}</t>
+          <t>{"consultationCost": 0, "customerId": 0, "id": 0, "monthHypertensionNum": 0, "patientCaseNum": 0, "productId": 0, "productName": "", "whetherHaveProof": 0}</t>
         </is>
       </c>
     </row>
@@ -829,7 +841,7 @@
       <c r="F9" s="1" t="inlineStr"/>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [{}], "sex": 0}</t>
+          <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [], "sex": 0}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1574,7 @@
       <c r="F31" s="1" t="inlineStr"/>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0, "actualMealsCost": 0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1607,7 @@
       <c r="F32" s="1" t="inlineStr"/>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": "?", "actualMealsCost": "?", "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
+          <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0, "actualMealsCost": 0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1747,7 @@
       <c r="F36" s="1" t="inlineStr"/>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0, "mealsCostBudget": 0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1780,7 @@
       <c r="F37" s="1" t="inlineStr"/>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "deptId": "", "endTime": "", "orderName": "", "pageSize": 0}</t>
+          <t>{"applyPeopleIdList": [], "beginTime": "", "currPage": 0, "deptId": "", "endTime": "", "orderName": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1845,7 @@
       <c r="F39" s="1" t="inlineStr"/>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": "?", "mealsCostBudget": "?", "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
+          <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0, "mealsCostBudget": 0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2147,7 @@
       <c r="F48" s="1" t="inlineStr"/>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>{"applyPeopleIdList": [{}], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
+          <t>{"applyPeopleIdList": [], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2180,7 @@
       <c r="F49" s="1" t="inlineStr"/>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": "?", "priceThree": "?", "priceTwo": "?", "targetCaseNum": 0, "totalEhNum": 0}</t>
+          <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2312,7 @@
       <c r="F53" s="1" t="inlineStr"/>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "month": "", "pageNum": 0, "pageSize": 0, "productId": 0, "regionManager": "", "userIds": [{}]}</t>
+          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "month": "", "pageNum": 0, "pageSize": 0, "productId": 0, "regionManager": "", "userIds": []}</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2382,7 @@
       <c r="F55" s="1" t="inlineStr"/>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": [{}]}</t>
+          <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": []}</t>
         </is>
       </c>
     </row>
